--- a/Final Project/STATE CRIME DATA.xlsx
+++ b/Final Project/STATE CRIME DATA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgui\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6A8E0C-9AA4-4891-B0C3-1C04E7D614CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFC059-A53E-4941-9C68-63EBE69586AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2560" windowWidth="9590" windowHeight="7360" xr2:uid="{0A618CB9-7C7E-430F-9D67-349B68CA0DB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0A618CB9-7C7E-430F-9D67-349B68CA0DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7810750-6BF4-495D-BA3A-679011582BF3}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,6 +464,9 @@
       <c r="D2">
         <v>1950</v>
       </c>
+      <c r="E2">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -477,6 +481,9 @@
       <c r="D3">
         <v>1550</v>
       </c>
+      <c r="E3">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -491,6 +498,9 @@
       <c r="D4">
         <v>1725</v>
       </c>
+      <c r="E4">
+        <v>18.100000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -505,6 +515,9 @@
       <c r="D5">
         <v>2125</v>
       </c>
+      <c r="E5">
+        <v>38.700000000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -519,6 +532,9 @@
       <c r="D6">
         <v>2300</v>
       </c>
+      <c r="E6">
+        <v>51.7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -533,6 +549,9 @@
       <c r="D7">
         <v>2450</v>
       </c>
+      <c r="E7">
+        <v>61.6</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -547,6 +566,9 @@
       <c r="D8">
         <v>2875</v>
       </c>
+      <c r="E8">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -561,6 +583,9 @@
       <c r="D9">
         <v>2700</v>
       </c>
+      <c r="E9">
+        <v>64.400000000000006</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -575,6 +600,9 @@
       <c r="D10">
         <v>2350</v>
       </c>
+      <c r="E10">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -589,6 +617,9 @@
       <c r="D11">
         <v>2300</v>
       </c>
+      <c r="E11">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -603,6 +634,9 @@
       <c r="D12">
         <v>1800</v>
       </c>
+      <c r="E12">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -617,6 +651,9 @@
       <c r="D13">
         <v>1850</v>
       </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -631,6 +668,9 @@
       <c r="D14">
         <v>1625</v>
       </c>
+      <c r="E14">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -645,6 +685,9 @@
       <c r="D15">
         <v>1210</v>
       </c>
+      <c r="E15">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -659,8 +702,11 @@
       <c r="D16">
         <v>1625</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>42095</v>
       </c>
@@ -673,8 +719,11 @@
       <c r="D17">
         <v>1995</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>42125</v>
       </c>
@@ -687,8 +736,11 @@
       <c r="D18">
         <v>2275</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>42156</v>
       </c>
@@ -701,8 +753,11 @@
       <c r="D19">
         <v>2300</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>42186</v>
       </c>
@@ -715,8 +770,11 @@
       <c r="D20">
         <v>2675</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>42217</v>
       </c>
@@ -729,8 +787,11 @@
       <c r="D21">
         <v>2600</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42248</v>
       </c>
@@ -743,8 +804,11 @@
       <c r="D22">
         <v>2310</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>42278</v>
       </c>
@@ -757,8 +821,11 @@
       <c r="D23">
         <v>2080</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>42309</v>
       </c>
@@ -771,8 +838,11 @@
       <c r="D24">
         <v>1825</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>42339</v>
       </c>
@@ -785,8 +855,11 @@
       <c r="D25">
         <v>1830</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>42370</v>
       </c>
@@ -799,8 +872,11 @@
       <c r="D26">
         <v>1550</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>42401</v>
       </c>
@@ -813,8 +889,11 @@
       <c r="D27">
         <v>1390</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>42430</v>
       </c>
@@ -827,8 +906,11 @@
       <c r="D28">
         <v>1590</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>42461</v>
       </c>
@@ -841,8 +923,11 @@
       <c r="D29">
         <v>1700</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>42491</v>
       </c>
@@ -855,8 +940,11 @@
       <c r="D30">
         <v>1900</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>42522</v>
       </c>
@@ -869,8 +957,11 @@
       <c r="D31">
         <v>1945</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>42552</v>
       </c>
@@ -883,8 +974,11 @@
       <c r="D32">
         <v>2250</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42583</v>
       </c>
@@ -897,8 +991,11 @@
       <c r="D33">
         <v>2350</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>42614</v>
       </c>
@@ -911,8 +1008,11 @@
       <c r="D34">
         <v>2050</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42644</v>
       </c>
@@ -925,8 +1025,11 @@
       <c r="D35">
         <v>2025</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>42675</v>
       </c>
@@ -939,8 +1042,11 @@
       <c r="D36">
         <v>1825</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>42705</v>
       </c>
@@ -953,8 +1059,11 @@
       <c r="D37">
         <v>1600</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>41640</v>
       </c>
@@ -969,8 +1078,11 @@
         <f>SUM(3819+13481+1353+4+85)</f>
         <v>18742</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>41671</v>
       </c>
@@ -985,8 +1097,11 @@
         <f>SUM(3058+11101+1207+3+98)</f>
         <v>15467</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>41699</v>
       </c>
@@ -1001,8 +1116,11 @@
         <f>SUM(3157+11687+1240+132)</f>
         <v>16216</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>41730</v>
       </c>
@@ -1017,8 +1135,11 @@
         <f>SUM(3291+11571+1209+2+131)</f>
         <v>16204</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41760</v>
       </c>
@@ -1033,8 +1154,11 @@
         <f>SUM(3161+11221+1336+135)</f>
         <v>15853</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41791</v>
       </c>
@@ -1049,8 +1173,11 @@
         <f>SUM(2986+12132+1304+3+146)</f>
         <v>16571</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>41821</v>
       </c>
@@ -1065,8 +1192,11 @@
         <f>SUM(3440+11808+1329+1+115)</f>
         <v>16693</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>41852</v>
       </c>
@@ -1081,8 +1211,11 @@
         <f>SUM(3220+12277+1365+1+94)</f>
         <v>16957</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>41883</v>
       </c>
@@ -1097,8 +1230,11 @@
         <f>SUM(3555+12712+1326+90)</f>
         <v>17683</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41913</v>
       </c>
@@ -1113,8 +1249,11 @@
         <f>SUM(3747+12977+1295+90)</f>
         <v>18109</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>41944</v>
       </c>
@@ -1129,8 +1268,11 @@
         <f>SUM(3193+11897+1309+1+92)</f>
         <v>16492</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>41974</v>
       </c>
@@ -1145,8 +1287,11 @@
         <f>SUM(3524+12814+1541+67)</f>
         <v>17946</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42005</v>
       </c>
@@ -1161,8 +1306,11 @@
         <f>SUM(3273+9908+1524+1)</f>
         <v>14706</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>42036</v>
       </c>
@@ -1177,8 +1325,11 @@
         <f>SUM(2861+8121+1263)</f>
         <v>12245</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>42064</v>
       </c>
@@ -1193,8 +1344,11 @@
         <f>SUM(2977+11660+1192+2)</f>
         <v>15831</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>42095</v>
       </c>
@@ -1209,8 +1363,11 @@
         <f>SUM(2887+11812+1145)</f>
         <v>15844</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>42125</v>
       </c>
@@ -1225,8 +1382,11 @@
         <f>SUM(2964+12118+1307+1)</f>
         <v>16390</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>42156</v>
       </c>
@@ -1241,8 +1401,11 @@
         <f>SUM(2924+12004+1312+2)</f>
         <v>16242</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>42186</v>
       </c>
@@ -1257,8 +1420,11 @@
         <f>SUM(3320+12629+1474)</f>
         <v>17423</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>42217</v>
       </c>
@@ -1273,8 +1439,11 @@
         <f>SUM(2901+11653+1373)</f>
         <v>15927</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42248</v>
       </c>
@@ -1289,8 +1458,11 @@
         <f>SUM(3241+12398+1362)</f>
         <v>17001</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42278</v>
       </c>
@@ -1305,8 +1477,11 @@
         <f>SUM(2931+12762+1359+1)</f>
         <v>17053</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42309</v>
       </c>
@@ -1321,8 +1496,11 @@
         <f>SUM(3041+13398+1422)</f>
         <v>17861</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>42339</v>
       </c>
@@ -1337,8 +1515,11 @@
         <f>SUM(3116+13774+1356+1)</f>
         <v>18247</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>42370</v>
       </c>
@@ -1353,8 +1534,11 @@
         <f>3007+13296+1350+2</f>
         <v>17655</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>42401</v>
       </c>
@@ -1369,8 +1553,11 @@
         <f>2822+11995+1280</f>
         <v>16097</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>42430</v>
       </c>
@@ -1385,8 +1572,11 @@
         <f>2718+12023+1340+5</f>
         <v>16086</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>42461</v>
       </c>
@@ -1401,8 +1591,11 @@
         <f>3081+12315+1533+1</f>
         <v>16930</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>42491</v>
       </c>
@@ -1417,8 +1610,11 @@
         <f>3240+12332+1479+3</f>
         <v>17054</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>42522</v>
       </c>
@@ -1433,8 +1629,11 @@
         <f>3249+11537+1545</f>
         <v>16331</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>42552</v>
       </c>
@@ -1449,8 +1648,11 @@
         <f>3052+11514+1519+2</f>
         <v>16087</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>42583</v>
       </c>
@@ -1465,8 +1667,11 @@
         <f>3535+13027+1634+1</f>
         <v>18197</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>42614</v>
       </c>
@@ -1481,8 +1686,11 @@
         <f>3107+11987+1543</f>
         <v>16637</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>42644</v>
       </c>
@@ -1496,8 +1704,11 @@
         <f>3056+12260+1487+3</f>
         <v>16806</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>42675</v>
       </c>
@@ -1511,8 +1722,11 @@
         <f>2979+11699+1365</f>
         <v>16043</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>42705</v>
       </c>
@@ -1526,8 +1740,11 @@
         <f>3059+12777+1661+2</f>
         <v>17499</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>41640</v>
       </c>
@@ -1542,8 +1759,11 @@
         <f>889+4881+578</f>
         <v>6348</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>41671</v>
       </c>
@@ -1558,8 +1778,11 @@
         <f>729+4745+545</f>
         <v>6019</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>41699</v>
       </c>
@@ -1574,8 +1797,11 @@
         <f>688+4894+524</f>
         <v>6106</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>41730</v>
       </c>
@@ -1590,8 +1816,11 @@
         <f>753+4482+413</f>
         <v>5648</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>41760</v>
       </c>
@@ -1606,8 +1835,11 @@
         <f>850+5641+508</f>
         <v>6999</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>41791</v>
       </c>
@@ -1622,8 +1854,11 @@
         <f>939+5572+527</f>
         <v>7038</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>41821</v>
       </c>
@@ -1638,8 +1873,11 @@
         <f>1033+5956+586</f>
         <v>7575</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>41852</v>
       </c>
@@ -1654,8 +1892,11 @@
         <f>1110+6195+626</f>
         <v>7931</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>41883</v>
       </c>
@@ -1670,8 +1911,11 @@
         <f>1006+5888+531</f>
         <v>7425</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>41913</v>
       </c>
@@ -1686,8 +1930,11 @@
         <f>1008+5827+574</f>
         <v>7409</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>41944</v>
       </c>
@@ -1702,8 +1949,11 @@
         <f>798+5007+490</f>
         <v>6295</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>41974</v>
       </c>
@@ -1718,8 +1968,11 @@
         <f>892+5521+557</f>
         <v>6970</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>42005</v>
       </c>
@@ -1734,8 +1987,11 @@
         <f>923+5469+698</f>
         <v>7090</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>42036</v>
       </c>
@@ -1750,8 +2006,11 @@
         <f>832+4846+537</f>
         <v>6215</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>42064</v>
       </c>
@@ -1766,8 +2025,11 @@
         <f>860+5561+544</f>
         <v>6965</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>42095</v>
       </c>
@@ -1782,8 +2044,11 @@
         <f>922+5203+600</f>
         <v>6725</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42125</v>
       </c>
@@ -1798,8 +2063,11 @@
         <f>1031+5633+590</f>
         <v>7254</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>42156</v>
       </c>
@@ -1814,8 +2082,11 @@
         <f>1057+5948+534</f>
         <v>7539</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>42186</v>
       </c>
@@ -1830,8 +2101,11 @@
         <f>6272+1142+590</f>
         <v>8004</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>42217</v>
       </c>
@@ -1846,8 +2120,11 @@
         <f>1185+6328+745</f>
         <v>8258</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>42248</v>
       </c>
@@ -1862,8 +2139,11 @@
         <f>1061+5960+793</f>
         <v>7814</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>42278</v>
       </c>
@@ -1878,8 +2158,11 @@
         <f>1050+6041+761</f>
         <v>7852</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>42309</v>
       </c>
@@ -1894,8 +2177,11 @@
         <f>948+5659+655</f>
         <v>7262</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>42339</v>
       </c>
@@ -1910,8 +2196,11 @@
         <f>960+5493+772</f>
         <v>7225</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>42370</v>
       </c>
@@ -1926,8 +2215,11 @@
         <f>918+5320+698</f>
         <v>6936</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>42401</v>
       </c>
@@ -1942,8 +2234,11 @@
         <f>931+5273+653</f>
         <v>6857</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>42430</v>
       </c>
@@ -1958,8 +2253,11 @@
         <f>958+5318+658</f>
         <v>6934</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>42461</v>
       </c>
@@ -1974,8 +2272,11 @@
         <f>967+5401+650</f>
         <v>7018</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>42491</v>
       </c>
@@ -1990,8 +2291,11 @@
         <f>1140+5822+729</f>
         <v>7691</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>42522</v>
       </c>
@@ -2006,8 +2310,11 @@
         <f>1245+5966+781</f>
         <v>7992</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>42552</v>
       </c>
@@ -2022,8 +2329,11 @@
         <f>1191+5476+701</f>
         <v>7368</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>42583</v>
       </c>
@@ -2038,8 +2348,11 @@
         <f>1152+5752+646</f>
         <v>7550</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>42614</v>
       </c>
@@ -2054,8 +2367,11 @@
         <f>1031+5674+683</f>
         <v>7388</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>42644</v>
       </c>
@@ -2070,8 +2386,11 @@
         <f>1096+6269+791</f>
         <v>8156</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>42675</v>
       </c>
@@ -2086,8 +2405,11 @@
         <f>1029+5701+694</f>
         <v>7424</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>42705</v>
       </c>
@@ -2102,8 +2424,11 @@
         <f>946+5867+739</f>
         <v>7552</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>41640</v>
       </c>
@@ -2118,8 +2443,11 @@
         <f>11927</f>
         <v>11927</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>41671</v>
       </c>
@@ -2134,8 +2462,11 @@
         <f>10019</f>
         <v>10019</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>41699</v>
       </c>
@@ -2150,8 +2481,11 @@
         <f>11463</f>
         <v>11463</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>41730</v>
       </c>
@@ -2166,8 +2500,11 @@
         <f>11989</f>
         <v>11989</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>41760</v>
       </c>
@@ -2182,8 +2519,11 @@
         <f>12613</f>
         <v>12613</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>41791</v>
       </c>
@@ -2198,8 +2538,11 @@
         <f>12649</f>
         <v>12649</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>41821</v>
       </c>
@@ -2214,8 +2557,11 @@
         <f>12948</f>
         <v>12948</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>41852</v>
       </c>
@@ -2230,8 +2576,11 @@
         <f>12226</f>
         <v>12226</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>41883</v>
       </c>
@@ -2246,8 +2595,11 @@
         <f>11881</f>
         <v>11881</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>41913</v>
       </c>
@@ -2262,8 +2614,11 @@
         <f>11722</f>
         <v>11722</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>41944</v>
       </c>
@@ -2278,8 +2633,11 @@
         <f>11324</f>
         <v>11324</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>41974</v>
       </c>
@@ -2293,8 +2651,11 @@
         <f>11688</f>
         <v>11688</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>42005</v>
       </c>
@@ -2309,8 +2670,11 @@
         <f>11624</f>
         <v>11624</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>42036</v>
       </c>
@@ -2325,8 +2689,11 @@
         <f>8548</f>
         <v>8548</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>42064</v>
       </c>
@@ -2341,8 +2708,11 @@
         <f>10920</f>
         <v>10920</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>42095</v>
       </c>
@@ -2357,8 +2727,11 @@
         <f>11509</f>
         <v>11509</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>42125</v>
       </c>
@@ -2372,8 +2745,11 @@
         <f>12053</f>
         <v>12053</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>42156</v>
       </c>
@@ -2387,8 +2763,11 @@
         <f>11885</f>
         <v>11885</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>42186</v>
       </c>
@@ -2402,8 +2781,11 @@
         <f>12387</f>
         <v>12387</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>42217</v>
       </c>
@@ -2417,8 +2799,11 @@
         <f>12018</f>
         <v>12018</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>42248</v>
       </c>
@@ -2432,8 +2817,11 @@
         <f>11757</f>
         <v>11757</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>42278</v>
       </c>
@@ -2447,8 +2835,11 @@
         <f>12177</f>
         <v>12177</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>42309</v>
       </c>
@@ -2462,8 +2853,11 @@
         <f>11306</f>
         <v>11306</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>42339</v>
       </c>
@@ -2477,8 +2871,11 @@
         <f>11394</f>
         <v>11394</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>42370</v>
       </c>
@@ -2493,8 +2890,11 @@
         <f>11463</f>
         <v>11463</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>42401</v>
       </c>
@@ -2509,8 +2909,11 @@
         <f>9200</f>
         <v>9200</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>42430</v>
       </c>
@@ -2525,8 +2928,11 @@
         <f>10393</f>
         <v>10393</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>42461</v>
       </c>
@@ -2539,8 +2945,11 @@
       <c r="D137">
         <v>10824</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>42491</v>
       </c>
@@ -2554,8 +2963,11 @@
       <c r="D138">
         <v>11859</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>42522</v>
       </c>
@@ -2569,8 +2981,11 @@
       <c r="D139">
         <v>11798</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>42552</v>
       </c>
@@ -2585,8 +3000,11 @@
         <f>12565</f>
         <v>12565</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>42583</v>
       </c>
@@ -2601,8 +3019,11 @@
         <f>12509</f>
         <v>12509</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>42614</v>
       </c>
@@ -2617,8 +3038,11 @@
         <f>11989</f>
         <v>11989</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>42644</v>
       </c>
@@ -2633,8 +3057,11 @@
         <f>12506</f>
         <v>12506</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>42675</v>
       </c>
@@ -2649,6 +3076,9 @@
         <f>10880</f>
         <v>10880</v>
       </c>
+      <c r="E144">
+        <v>57.8</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -2664,6 +3094,9 @@
       <c r="D145">
         <f>12030</f>
         <v>12030</v>
+      </c>
+      <c r="E145">
+        <v>50.1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">

--- a/Final Project/STATE CRIME DATA.xlsx
+++ b/Final Project/STATE CRIME DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgui\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFC059-A53E-4941-9C68-63EBE69586AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAEC56-7239-4AE8-BC49-71DAEDD0F6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0A618CB9-7C7E-430F-9D67-349B68CA0DB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="12">
   <si>
     <t>State</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>F_temp</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
   </si>
 </sst>
 </file>
@@ -422,14 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7810750-6BF4-495D-BA3A-679011582BF3}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3783,8 +3790,1233 @@
         <v>39.1</v>
       </c>
     </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182">
+        <v>1219</v>
+      </c>
+      <c r="D182">
+        <v>9622</v>
+      </c>
+      <c r="E182">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>1058</v>
+      </c>
+      <c r="D183">
+        <v>7530</v>
+      </c>
+      <c r="E183">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184">
+        <v>1242</v>
+      </c>
+      <c r="D184">
+        <v>8682</v>
+      </c>
+      <c r="E184">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185">
+        <v>1367</v>
+      </c>
+      <c r="D185">
+        <v>9594</v>
+      </c>
+      <c r="E185">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186">
+        <v>1425</v>
+      </c>
+      <c r="D186">
+        <v>10283</v>
+      </c>
+      <c r="E186">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187">
+        <v>1423</v>
+      </c>
+      <c r="D187">
+        <v>9880</v>
+      </c>
+      <c r="E187">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>1516</v>
+      </c>
+      <c r="D188">
+        <v>10383</v>
+      </c>
+      <c r="E188">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>1479</v>
+      </c>
+      <c r="D189">
+        <v>10123</v>
+      </c>
+      <c r="E189">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <v>1338</v>
+      </c>
+      <c r="D190">
+        <v>10067</v>
+      </c>
+      <c r="E190">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191">
+        <v>1379</v>
+      </c>
+      <c r="D191">
+        <v>10049</v>
+      </c>
+      <c r="E191">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192">
+        <v>1241</v>
+      </c>
+      <c r="D192">
+        <v>8888</v>
+      </c>
+      <c r="E192">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193">
+        <v>1200</v>
+      </c>
+      <c r="D193">
+        <v>9443</v>
+      </c>
+      <c r="E193">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194">
+        <v>1377</v>
+      </c>
+      <c r="D194">
+        <v>9139</v>
+      </c>
+      <c r="E194">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195">
+        <v>1040</v>
+      </c>
+      <c r="D195">
+        <v>6906</v>
+      </c>
+      <c r="E195">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196">
+        <v>1237</v>
+      </c>
+      <c r="D196">
+        <v>8299</v>
+      </c>
+      <c r="E196">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>1334</v>
+      </c>
+      <c r="D197">
+        <v>8857</v>
+      </c>
+      <c r="E197">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198">
+        <v>1422</v>
+      </c>
+      <c r="D198">
+        <v>9267</v>
+      </c>
+      <c r="E198">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199">
+        <v>1677</v>
+      </c>
+      <c r="D199">
+        <v>9755</v>
+      </c>
+      <c r="E199">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200">
+        <v>1551</v>
+      </c>
+      <c r="D200">
+        <v>9923</v>
+      </c>
+      <c r="E200">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <v>1508</v>
+      </c>
+      <c r="D201">
+        <v>9823</v>
+      </c>
+      <c r="E201">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>1446</v>
+      </c>
+      <c r="D202">
+        <v>9198</v>
+      </c>
+      <c r="E202">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>1402</v>
+      </c>
+      <c r="D203">
+        <v>9679</v>
+      </c>
+      <c r="E203">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204">
+        <v>1270</v>
+      </c>
+      <c r="D204">
+        <v>8969</v>
+      </c>
+      <c r="E204">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205">
+        <v>1209</v>
+      </c>
+      <c r="D205">
+        <v>9189</v>
+      </c>
+      <c r="E205">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206">
+        <v>1336</v>
+      </c>
+      <c r="D206">
+        <v>9325</v>
+      </c>
+      <c r="E206">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>1260</v>
+      </c>
+      <c r="D207">
+        <v>8082</v>
+      </c>
+      <c r="E207">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>1497</v>
+      </c>
+      <c r="D208">
+        <v>9104</v>
+      </c>
+      <c r="E208">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B209" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209">
+        <v>1479</v>
+      </c>
+      <c r="D209">
+        <v>9277</v>
+      </c>
+      <c r="E209">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B210" t="s">
+        <v>10</v>
+      </c>
+      <c r="C210">
+        <v>1449</v>
+      </c>
+      <c r="D210">
+        <v>10000</v>
+      </c>
+      <c r="E210">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <v>1514</v>
+      </c>
+      <c r="D211">
+        <v>9650</v>
+      </c>
+      <c r="E211">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212">
+        <v>1638</v>
+      </c>
+      <c r="D212">
+        <v>10154</v>
+      </c>
+      <c r="E212">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>1613</v>
+      </c>
+      <c r="D213">
+        <v>10361</v>
+      </c>
+      <c r="E213">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214">
+        <v>1492</v>
+      </c>
+      <c r="D214">
+        <v>9302</v>
+      </c>
+      <c r="E214">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C215">
+        <v>1658</v>
+      </c>
+      <c r="D215">
+        <v>10134</v>
+      </c>
+      <c r="E215">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B216" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216">
+        <v>1330</v>
+      </c>
+      <c r="D216">
+        <v>9289</v>
+      </c>
+      <c r="E216">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217">
+        <v>1300</v>
+      </c>
+      <c r="D217">
+        <v>9633</v>
+      </c>
+      <c r="E217">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218">
+        <v>1219</v>
+      </c>
+      <c r="D218">
+        <v>3767</v>
+      </c>
+      <c r="E218">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219">
+        <v>1058</v>
+      </c>
+      <c r="D219">
+        <v>2965</v>
+      </c>
+      <c r="E219">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B220" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220">
+        <v>1242</v>
+      </c>
+      <c r="D220">
+        <v>3543</v>
+      </c>
+      <c r="E220">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221">
+        <v>1367</v>
+      </c>
+      <c r="D221">
+        <v>3918</v>
+      </c>
+      <c r="E221">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222">
+        <v>1425</v>
+      </c>
+      <c r="D222">
+        <v>4202</v>
+      </c>
+      <c r="E222">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223">
+        <v>1423</v>
+      </c>
+      <c r="D223">
+        <v>4126</v>
+      </c>
+      <c r="E223">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224">
+        <v>1516</v>
+      </c>
+      <c r="D224">
+        <v>4193</v>
+      </c>
+      <c r="E224">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B225" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225">
+        <v>1479</v>
+      </c>
+      <c r="D225">
+        <v>4227</v>
+      </c>
+      <c r="E225">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>1338</v>
+      </c>
+      <c r="D226">
+        <v>4238</v>
+      </c>
+      <c r="E226">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227">
+        <v>1379</v>
+      </c>
+      <c r="D227">
+        <v>4094</v>
+      </c>
+      <c r="E227">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228">
+        <v>1241</v>
+      </c>
+      <c r="D228">
+        <v>3438</v>
+      </c>
+      <c r="E228">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229">
+        <v>1200</v>
+      </c>
+      <c r="D229">
+        <v>3806</v>
+      </c>
+      <c r="E229">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230">
+        <v>1377</v>
+      </c>
+      <c r="D230">
+        <v>3320</v>
+      </c>
+      <c r="E230">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B231" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231">
+        <v>1040</v>
+      </c>
+      <c r="D231">
+        <v>2554</v>
+      </c>
+      <c r="E231">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232">
+        <v>1237</v>
+      </c>
+      <c r="D232">
+        <v>3364</v>
+      </c>
+      <c r="E232">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233">
+        <v>1334</v>
+      </c>
+      <c r="D233">
+        <v>3397</v>
+      </c>
+      <c r="E233">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234">
+        <v>1422</v>
+      </c>
+      <c r="D234">
+        <v>3463</v>
+      </c>
+      <c r="E234">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235">
+        <v>1677</v>
+      </c>
+      <c r="D235">
+        <v>3477</v>
+      </c>
+      <c r="E235">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236">
+        <v>1551</v>
+      </c>
+      <c r="D236">
+        <v>3937</v>
+      </c>
+      <c r="E236">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237">
+        <v>1508</v>
+      </c>
+      <c r="D237">
+        <v>3786</v>
+      </c>
+      <c r="E237">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>1446</v>
+      </c>
+      <c r="D238">
+        <v>3707</v>
+      </c>
+      <c r="E238">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239">
+        <v>1402</v>
+      </c>
+      <c r="D239">
+        <v>3847</v>
+      </c>
+      <c r="E239">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240">
+        <v>1270</v>
+      </c>
+      <c r="D240">
+        <v>3381</v>
+      </c>
+      <c r="E240">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B241" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241">
+        <v>1209</v>
+      </c>
+      <c r="D241">
+        <v>3615</v>
+      </c>
+      <c r="E241">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242">
+        <v>1336</v>
+      </c>
+      <c r="D242">
+        <v>3339</v>
+      </c>
+      <c r="E242">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B243" t="s">
+        <v>11</v>
+      </c>
+      <c r="C243">
+        <v>1260</v>
+      </c>
+      <c r="D243">
+        <v>2843</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B244" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244">
+        <v>1497</v>
+      </c>
+      <c r="D244">
+        <v>3257</v>
+      </c>
+      <c r="E244">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B245" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245">
+        <v>1479</v>
+      </c>
+      <c r="D245">
+        <v>3391</v>
+      </c>
+      <c r="E245">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246">
+        <v>1449</v>
+      </c>
+      <c r="D246">
+        <v>3620</v>
+      </c>
+      <c r="E246">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247">
+        <v>1514</v>
+      </c>
+      <c r="D247">
+        <v>3748</v>
+      </c>
+      <c r="E247">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248">
+        <v>1638</v>
+      </c>
+      <c r="D248">
+        <v>3636</v>
+      </c>
+      <c r="E248">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249">
+        <v>1613</v>
+      </c>
+      <c r="D249">
+        <v>3954</v>
+      </c>
+      <c r="E249">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250">
+        <v>1492</v>
+      </c>
+      <c r="D250">
+        <v>3732</v>
+      </c>
+      <c r="E250">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251">
+        <v>1658</v>
+      </c>
+      <c r="D251">
+        <v>3990</v>
+      </c>
+      <c r="E251">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B252" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252">
+        <v>1330</v>
+      </c>
+      <c r="D252">
+        <v>3718</v>
+      </c>
+      <c r="E252">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253">
+        <v>1300</v>
+      </c>
+      <c r="D253">
+        <v>3310</v>
+      </c>
+      <c r="E253">
+        <v>23.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>